--- a/Datasheet for fieldwork_Combined_Group 1.xlsx
+++ b/Datasheet for fieldwork_Combined_Group 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VeraChen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3364821C-E297-834B-84F8-F9DC11F3FD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188880E5-5BB4-8A47-9E95-EADC9994D6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24540" windowHeight="15500" xr2:uid="{F51BA5B2-29F7-BA41-BB7F-1792E7AC81C6}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="31">
   <si>
     <t>Tree-level metrics</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Picea Abies</t>
   </si>
   <si>
-    <t>Fagus sylvatica</t>
-  </si>
-  <si>
     <t>Abies Alba</t>
   </si>
   <si>
@@ -111,12 +108,6 @@
   </si>
   <si>
     <t>Castanea sativa</t>
-  </si>
-  <si>
-    <t>Picea abies</t>
-  </si>
-  <si>
-    <t>Abies alba</t>
   </si>
   <si>
     <t>Castanea Sativa</t>
@@ -144,9 +135,6 @@
   </si>
   <si>
     <t>Quercus Petraea</t>
-  </si>
-  <si>
-    <t>Albies Alba</t>
   </si>
   <si>
     <t>Picea Abies (mort)</t>
@@ -880,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203032D6-F570-7340-86AA-FB8271BEC541}">
   <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -959,7 +947,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="25">
         <f>11/PI()</f>
@@ -997,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10">
         <f>38/PI()</f>
@@ -1032,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="10">
         <f>5/PI()</f>
@@ -1070,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="10">
         <f>22/PI()</f>
@@ -1108,10 +1096,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10">
         <f>66/PI()</f>
@@ -1146,10 +1134,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="10">
         <f>73/PI()</f>
@@ -1187,7 +1175,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="10">
         <f>19/PI()</f>
@@ -1222,10 +1210,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10">
         <f>35/PI()</f>
@@ -1263,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="10">
         <f>42/PI()</f>
@@ -1298,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="10">
         <f>38/PI()</f>
@@ -1336,10 +1324,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="10">
         <f>25/PI()</f>
@@ -1374,10 +1362,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="10">
         <f>206/PI()</f>
@@ -1415,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="10">
         <f>40/PI()</f>
@@ -1454,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="10">
         <f>23/PI()</f>
@@ -1492,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="10">
         <f>10/PI()</f>
@@ -1530,7 +1518,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="10">
         <f>134/PI()</f>
@@ -1568,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="10">
         <f>84/PI()</f>
@@ -1606,7 +1594,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="10">
         <f>180/PI()</f>
@@ -1644,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="10">
         <f>129/PI()</f>
@@ -1682,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="10">
         <f>131/PI()</f>
@@ -1717,10 +1705,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="10">
         <f>105/PI()</f>
@@ -1754,10 +1742,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="10">
         <f>46/PI()</f>
@@ -1791,10 +1779,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="10">
         <f>78/PI()</f>
@@ -1831,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="10">
         <f>125/PI()</f>
@@ -1868,7 +1856,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="10">
         <f>164/PI()</f>
@@ -1902,10 +1890,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="10">
         <f>103/PI()</f>
@@ -1939,10 +1927,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="10">
         <f>58/PI()</f>
@@ -1976,10 +1964,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="10">
         <f>49/PI()</f>
@@ -2013,10 +2001,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="10">
         <f>104/PI()</f>
@@ -2050,10 +2038,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="10">
         <f>64/PI()</f>
@@ -2087,10 +2075,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="10">
         <f>61/PI()</f>
@@ -2124,10 +2112,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="10">
         <f>81/PI()</f>
@@ -2161,10 +2149,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="10">
         <f>95/PI()</f>
@@ -2198,10 +2186,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="10">
         <f>104/PI()</f>
@@ -2235,10 +2223,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="10">
         <f>130/PI()</f>
@@ -2272,10 +2260,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="10">
         <f>80/PI()</f>
@@ -2309,10 +2297,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" s="10">
         <f>82/PI()</f>
@@ -2346,10 +2334,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="16">
         <v>12.414085561167836</v>
@@ -2381,10 +2369,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="16">
         <v>11.777465788800255</v>
@@ -2416,10 +2404,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="16">
         <v>9.2309866993299305</v>
@@ -2451,10 +2439,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="16">
         <v>25.146481008519466</v>
@@ -2486,10 +2474,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="16">
         <v>16.870423967740905</v>
@@ -2521,10 +2509,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="16">
         <v>8.91267681314614</v>
@@ -2556,10 +2544,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="16">
         <v>10.504226244065093</v>
@@ -2591,10 +2579,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="16">
         <v>10.822536130248883</v>
@@ -2626,10 +2614,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="16">
         <v>22.600001919049138</v>
@@ -2661,10 +2649,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="16">
         <v>14.642254764454371</v>
@@ -2696,10 +2684,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="16">
         <v>39.788735772973837</v>
@@ -2734,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="16">
         <v>2.8647889756541161</v>
@@ -2766,10 +2754,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="16">
         <v>3.8197186342054881</v>
@@ -2804,7 +2792,7 @@
         <v>12</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="16">
         <v>10.504226244065093</v>
@@ -2836,10 +2824,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="16">
         <v>13.369015219719209</v>
@@ -2871,10 +2859,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="16">
         <v>16.233804195373324</v>
@@ -2906,10 +2894,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="16">
         <v>1.909859317102744</v>
@@ -2941,10 +2929,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="16">
         <v>3</v>
@@ -2979,7 +2967,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="16">
         <v>3.5014087480216975</v>
@@ -3011,10 +2999,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="16">
         <v>33.74084793548181</v>
@@ -3046,10 +3034,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="16">
         <v>41.38028520389279</v>
@@ -3081,10 +3069,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="16">
         <v>32.785918276930438</v>
@@ -3116,10 +3104,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="16">
         <v>32.785918276930438</v>
@@ -3151,10 +3139,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" s="16">
         <v>3.5014087480216975</v>
@@ -3186,10 +3174,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" s="16">
         <v>3.183098861837907</v>
@@ -3221,10 +3209,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65" s="16">
         <v>1.909859317102744</v>
@@ -3256,10 +3244,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="16">
         <v>36.605636911135932</v>
@@ -3291,10 +3279,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="16">
         <v>35.014087480216972</v>
@@ -3326,10 +3314,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" s="16">
         <v>33.74084793548181</v>
@@ -3361,10 +3349,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" s="16">
         <v>1.2732395447351628</v>
@@ -3396,10 +3384,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="16">
         <v>22.918311805232928</v>
@@ -3431,10 +3419,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="16">
         <v>31.830988618379067</v>
@@ -3466,10 +3454,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" s="16">
         <v>28.966199642724952</v>
@@ -3501,10 +3489,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="16">
         <v>1.2732395447351628</v>
@@ -3536,10 +3524,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" s="16">
         <v>33.104228163114229</v>
@@ -3571,10 +3559,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" s="16">
         <v>29.921129301276324</v>
@@ -3606,10 +3594,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" s="16">
         <v>2.8647889756541161</v>
@@ -3641,10 +3629,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" s="16">
         <v>35.014087480216972</v>
@@ -3676,10 +3664,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" s="16">
         <v>31.830988618379067</v>
@@ -3711,10 +3699,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" s="16">
         <v>2.5464790894703255</v>
@@ -3746,10 +3734,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" s="16">
         <v>38.197186342054884</v>
@@ -3781,10 +3769,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" s="16">
         <v>2.5464790894703255</v>
@@ -3816,10 +3804,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82" s="16">
         <v>29.284509528908742</v>
@@ -3851,10 +3839,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" s="10">
         <f>162/PI()</f>
@@ -3888,10 +3876,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" s="10">
         <f>185/PI()</f>
@@ -3925,10 +3913,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" s="10">
         <f>26/PI()</f>
@@ -3962,10 +3950,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" s="10">
         <f>159/PI()</f>
@@ -4002,7 +3990,7 @@
         <v>12</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" s="10">
         <f>16/PI()</f>
@@ -4036,10 +4024,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="10">
         <f>33/PI()</f>
@@ -4073,10 +4061,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="10">
         <f>19/PI()</f>
@@ -4110,10 +4098,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" s="10">
         <f>143/PI()</f>
@@ -4147,10 +4135,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" s="10">
         <f>106/PI()</f>
@@ -4184,10 +4172,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" s="10">
         <f>122/PI()</f>
@@ -4221,10 +4209,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" s="10">
         <f>62/PI()</f>
@@ -4258,10 +4246,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" s="10">
         <f>100/PI()</f>
@@ -4295,10 +4283,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" s="10">
         <f>95/PI()</f>
@@ -4332,10 +4320,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" s="10">
         <f>148/PI()</f>
@@ -4369,10 +4357,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97" s="10">
         <f>128/PI()</f>
@@ -4406,10 +4394,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D98" s="10">
         <f>15/PI()</f>
@@ -4443,10 +4431,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99" s="10">
         <f>16/PI()</f>
@@ -4480,10 +4468,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" s="10">
         <f>7/PI()</f>
@@ -4517,19 +4505,19 @@
         <v>99</v>
       </c>
       <c r="B101" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="E101" s="12">
         <v>2.5</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G101" s="13">
         <v>1.42</v>
@@ -4555,16 +4543,16 @@
         <v>12</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E102" s="12">
         <v>3</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G102" s="13">
         <v>1.42</v>
@@ -4590,16 +4578,16 @@
         <v>12</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E103" s="12">
         <v>1.5</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G103" s="13">
         <v>1.42</v>
@@ -4622,10 +4610,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104" s="10">
         <v>28.011269980000002</v>
@@ -4660,16 +4648,16 @@
         <v>12</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E105" s="12">
         <v>4</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G105" s="13">
         <v>1.42</v>
@@ -4695,16 +4683,16 @@
         <v>12</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E106" s="12">
         <v>3</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G106" s="13">
         <v>1.42</v>
@@ -4727,19 +4715,19 @@
         <v>105</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E107" s="12">
         <v>5</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G107" s="13">
         <v>1.42</v>
@@ -4762,10 +4750,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" s="12">
         <v>10</v>
@@ -4797,10 +4785,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" s="12">
         <v>27</v>
@@ -4832,19 +4820,19 @@
         <v>108</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E110" s="12">
         <v>1.5</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G110" s="13">
         <v>1.42</v>
@@ -4867,19 +4855,19 @@
         <v>109</v>
       </c>
       <c r="B111" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="E111" s="12">
         <v>2.2000000000000002</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G111" s="13">
         <v>1.42</v>
@@ -4902,19 +4890,19 @@
         <v>110</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="E112" s="12">
         <v>4.5</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G112" s="13">
         <v>1.42</v>
@@ -4937,19 +4925,19 @@
         <v>111</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E113" s="12">
         <v>1.4</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G113" s="13">
         <v>1.42</v>
@@ -4972,19 +4960,19 @@
         <v>112</v>
       </c>
       <c r="B114" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="E114" s="12">
         <v>6</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G114" s="13">
         <v>1.42</v>
@@ -5007,19 +4995,19 @@
         <v>113</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E115" s="12">
         <v>7</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G115" s="13">
         <v>1.42</v>
@@ -5045,16 +5033,16 @@
         <v>12</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E116" s="12">
         <v>2.5</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G116" s="13">
         <v>1.42</v>
@@ -5077,19 +5065,19 @@
         <v>115</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E117" s="12">
         <v>1.5</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G117" s="13">
         <v>1.42</v>
@@ -5112,10 +5100,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" s="12">
         <v>30</v>
@@ -5147,19 +5135,19 @@
         <v>117</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E119" s="12">
         <v>2</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G119" s="13">
         <v>4.9400000000000004</v>
@@ -5185,7 +5173,7 @@
         <v>12</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D120" s="10">
         <v>40.743665399999998</v>
@@ -5220,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D121" s="10">
         <v>30.557749099999999</v>
@@ -5255,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122" s="10">
         <v>38.515496200000001</v>
@@ -5290,7 +5278,7 @@
         <v>12</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D123" s="10">
         <v>28.966199599999999</v>
@@ -5325,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124" s="10">
         <v>41.0619753</v>
@@ -5360,7 +5348,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125" s="10">
         <v>25.464790900000001</v>
@@ -5392,10 +5380,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" s="10">
         <v>2.8647889756541161</v>
@@ -5431,7 +5419,7 @@
         <v>12</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" s="10">
         <v>5.0929581789406511</v>
@@ -5464,10 +5452,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" s="10">
         <v>2.228169203286535</v>
@@ -5503,7 +5491,7 @@
         <v>12</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" s="10">
         <v>5.5704230082163368</v>
@@ -5539,7 +5527,7 @@
         <v>12</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" s="10">
         <v>6.0478878374920226</v>
@@ -5575,7 +5563,7 @@
         <v>12</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" s="10">
         <v>6.6845076098596046</v>
@@ -5611,7 +5599,7 @@
         <v>12</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" s="10">
         <v>7.1619724391352904</v>
@@ -5647,7 +5635,7 @@
         <v>12</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" s="10">
         <v>6.5253526667677093</v>
@@ -5680,10 +5668,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" s="10">
         <v>2.0690142601946393</v>
@@ -5719,7 +5707,7 @@
         <v>12</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" s="10">
         <v>6.6845076098596046</v>
@@ -5755,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" s="10">
         <v>9.7084515286056163</v>
@@ -5791,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" s="10">
         <v>3.5014087480216975</v>
@@ -5827,7 +5815,7 @@
         <v>12</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" s="10">
         <v>5.0929581789406511</v>
@@ -5863,7 +5851,7 @@
         <v>12</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" s="10">
         <v>3.0239439187460113</v>
@@ -5896,10 +5884,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" s="10">
         <v>46.632398325925337</v>
@@ -5935,7 +5923,7 @@
         <v>12</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" s="10">
         <v>63.343667350574343</v>
@@ -5968,10 +5956,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142" s="10">
         <v>6.366197723675814</v>
@@ -6007,7 +5995,7 @@
         <v>12</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143" s="10">
         <v>38.515496228238675</v>
@@ -6043,7 +6031,7 @@
         <v>12</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" s="10">
         <v>27.215495268714104</v>
@@ -6076,10 +6064,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145" s="10">
         <v>4.45633840657307</v>
@@ -6115,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D146" s="10">
         <v>32.467608390746648</v>
@@ -6148,10 +6136,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" s="29">
         <v>9.5</v>
@@ -6183,10 +6171,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" s="29">
         <v>66.8</v>
@@ -6218,10 +6206,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" s="29">
         <v>1</v>
@@ -6253,10 +6241,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" s="30">
         <v>13.4</v>
@@ -6288,10 +6276,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" s="30">
         <v>21</v>
@@ -6323,10 +6311,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" s="30">
         <v>25.5</v>
@@ -6361,7 +6349,7 @@
         <v>12</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" s="30">
         <v>8.6</v>
@@ -6396,7 +6384,7 @@
         <v>12</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" s="30">
         <v>17.2</v>
@@ -6428,10 +6416,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" s="30">
         <v>9.1999999999999993</v>
@@ -6463,10 +6451,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" s="30">
         <v>9.5</v>
@@ -6501,7 +6489,7 @@
         <v>12</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" s="30">
         <v>17.5</v>
@@ -6536,7 +6524,7 @@
         <v>12</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D158" s="30">
         <v>35.700000000000003</v>
@@ -6571,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="C159" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D159" s="30">
         <v>26.4</v>
@@ -6606,7 +6594,7 @@
         <v>12</v>
       </c>
       <c r="C160" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D160" s="30">
         <v>35.299999999999997</v>
@@ -6638,10 +6626,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D161" s="30">
         <v>1</v>
@@ -6676,7 +6664,7 @@
         <v>12</v>
       </c>
       <c r="C162" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D162" s="30">
         <v>23.6</v>
@@ -6711,7 +6699,7 @@
         <v>12</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" s="30">
         <v>27.4</v>
@@ -6746,7 +6734,7 @@
         <v>12</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" s="30">
         <v>39.200000000000003</v>
@@ -6778,10 +6766,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" s="30">
         <v>2.9</v>
@@ -6816,7 +6804,7 @@
         <v>12</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" s="30">
         <v>27.1</v>
@@ -6848,10 +6836,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" s="30">
         <v>2.9</v>
@@ -6886,7 +6874,7 @@
         <v>12</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" s="30">
         <v>26.1</v>
@@ -6918,10 +6906,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D169" s="18">
         <v>37.242256683503513</v>
@@ -6943,10 +6931,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D170" s="18">
         <v>4.7746482927568605</v>
@@ -6978,10 +6966,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D171" s="18">
         <v>3.5014087480216975</v>
@@ -7013,10 +7001,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172" s="18">
         <v>2.5464790894703255</v>
@@ -7048,10 +7036,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D173" s="18">
         <v>52.521131220325465</v>
@@ -7083,10 +7071,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D174" s="18">
         <v>1.909859317102744</v>
@@ -7118,10 +7106,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D175" s="18">
         <v>4.45633840657307</v>
@@ -7156,7 +7144,7 @@
         <v>12</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D176" s="18">
         <v>0.95492965855137202</v>
@@ -7188,10 +7176,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D177" s="18">
         <v>52.521131220325465</v>
@@ -7223,10 +7211,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D178" s="18">
         <v>5.0929581789406511</v>
@@ -7258,10 +7246,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D179" s="18">
         <v>3.183098861837907</v>
@@ -7293,10 +7281,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D180" s="18">
         <v>3.8197186342054881</v>
@@ -7328,10 +7316,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D181" s="18">
         <v>31.512678732195276</v>
@@ -7363,10 +7351,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D182" s="18">
         <v>31.830988618379067</v>
@@ -7398,10 +7386,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183" s="18">
         <v>31.194368846011486</v>
@@ -7433,10 +7421,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184" s="18">
         <v>33.104228163114229</v>
@@ -7468,10 +7456,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D185" s="18">
         <v>35.969017138768351</v>
@@ -7503,10 +7491,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D186" s="18">
         <v>25.146481008519466</v>
@@ -7538,10 +7526,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D187" s="18">
         <v>37.242256683503513</v>
@@ -7573,10 +7561,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188" s="18">
         <v>34.695777594033181</v>
@@ -7608,10 +7596,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D189" s="18">
         <v>1.5915494309189535</v>
@@ -7643,10 +7631,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190" s="18">
         <v>2.5464790894703255</v>
@@ -7678,10 +7666,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D191" s="16">
         <f>1*2.54/PI()</f>
@@ -7714,10 +7702,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" s="16">
         <f>2.54*1.3/PI()</f>
@@ -7750,10 +7738,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" s="16">
         <f>2.54*2/PI()</f>
@@ -7786,10 +7774,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194" s="16">
         <f>2.54*1.92/PI()</f>
@@ -7822,10 +7810,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195" s="16">
         <f>2.54*41.5/PI()</f>
@@ -7858,10 +7846,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" s="16">
         <f>2.54*44.5/PI()</f>
@@ -7894,10 +7882,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197" s="16">
         <f>2.54*1.8/PI()</f>
@@ -7930,10 +7918,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D198" s="16">
         <f>2.54*1.4/PI()</f>
@@ -7966,10 +7954,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D199" s="16">
         <f>2.54*1.9/PI()</f>
@@ -8002,10 +7990,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D200" s="16">
         <f>2.54*4.2/PI()</f>
@@ -8038,10 +8026,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D201" s="16">
         <f>2.54*5.5/PI()</f>
@@ -8074,10 +8062,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D202" s="16">
         <f>2.54*66.3/PI()</f>
@@ -8110,10 +8098,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D203" s="16">
         <f>2.54*2/PI()</f>
@@ -8146,10 +8134,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D204" s="16">
         <f>2.54*4.8/PI()</f>
@@ -8182,10 +8170,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D205" s="16">
         <f>2.54*3.6/PI()</f>
@@ -8218,10 +8206,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D206" s="16">
         <f>2.54*2.2/PI()</f>
@@ -8254,10 +8242,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D207" s="16">
         <f>2.54*2.1/PI()</f>
@@ -8290,10 +8278,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D208" s="16">
         <f>2.54*63.8/PI()</f>
@@ -8326,10 +8314,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D209" s="16">
         <f>2.54*6.5/PI()</f>
@@ -8362,10 +8350,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D210" s="16">
         <f>2.54*18.1/PI()</f>
@@ -8397,11 +8385,11 @@
       <c r="A211" s="41">
         <v>209</v>
       </c>
-      <c r="B211" s="34" t="s">
-        <v>13</v>
+      <c r="B211" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C211" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D211" s="35">
         <f>2.54*15.7/PI()</f>
